--- a/biology/Botanique/Liste_des_plantes_potagères_par_familles_botaniques/Liste_des_plantes_potagères_par_familles_botaniques.xlsx
+++ b/biology/Botanique/Liste_des_plantes_potagères_par_familles_botaniques/Liste_des_plantes_potagères_par_familles_botaniques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_potag%C3%A8res_par_familles_botaniques</t>
+          <t>Liste_des_plantes_potagères_par_familles_botaniques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes potagères sont des plantes comestibles cultivés dans des jardins potagers, en serre, dans l'eau, ou en plein champ.
 Quatre familles jouent un rôle primordial pour les légumes : les Fabaceae (tous les légumes secs), les Solanaceae (tomates, poivrons et pommes de terre), les Brassicaceae, (choux, navets et radis), et les cucurbitaceae (courges et courgettes), tandis que trois familles apportent la plupart des herbes aromatiques : Apiaceae, Lamiaceae et Liliaceae.
